--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/CursoRutils/inst/minimal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202108-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC200D-3D58-554E-8FA1-15C9A1DEA7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8DA94-32B2-2941-98D9-4D6378EC7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49400" yWindow="-620" windowWidth="30020" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>aula</t>
   </si>
@@ -37,13 +37,100 @@
   </si>
   <si>
     <t>extra</t>
+  </si>
+  <si>
+    <t>nao</t>
+  </si>
+  <si>
+    <t>Reorganize alguma análise que você já fez no R seguindo o modelo de organização de projetos visto na primeira aula.</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/main-r4ds-2/slides/02-organizacao-projeto.html</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Exercícios de dplyr 1.0</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-2-dplyr.html#exerc%C3%ADcios-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercícios de tidyr </t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-3-tidyr.html#exerc%C3%ADcios-18</t>
+  </si>
+  <si>
+    <t>Fazer uma tabela do lucro médio anual dos filmes de comédia, ação e romance (2000 a 2016)</t>
+  </si>
+  <si>
+    <t>https://github.com/curso-r/livro-material/raw/master/assets/data/imdb.rds</t>
+  </si>
+  <si>
+    <t>Calcular o lucro médio por gênero do filme na base IMDB</t>
+  </si>
+  <si>
+    <t>Fazer gráficos de dispersão do lucro vs todas as outras variáveis núméricas da base IMDB</t>
+  </si>
+  <si>
+    <t>Exercícios stringr</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-4-o-pacote-stringr.html#exerc%C3%ADcios-19</t>
+  </si>
+  <si>
+    <t>Exercícios extras de stringr</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/202104-r4ds-2/pratica/99-exercicios-extras-stringr.R</t>
+  </si>
+  <si>
+    <t>Exercícios lubridate</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-5-o-pacote-lubridate.html#exerc%C3%ADcios-20</t>
+  </si>
+  <si>
+    <t>forcats: leitura extra</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-6-forcats.html#forcats</t>
+  </si>
+  <si>
+    <t>Exercícios forcats</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/7-6-forcats.html#exerc%C3%ADcios-21</t>
+  </si>
+  <si>
+    <t>Exercícios de purrr</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/10-5-exerc%C3%ADcios-23.html</t>
+  </si>
+  <si>
+    <t>Exercícios do livro R for Data Science (inglês)</t>
+  </si>
+  <si>
+    <t>https://r4ds.had.co.nz/</t>
+  </si>
+  <si>
+    <t>Exercícios NSE</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/11-1-nse.html#exerc%C3%ADcios-24</t>
+  </si>
+  <si>
+    <t>Faça um documento em R Markdown mostrando as 10 delegacias com mais roubo de carro no Estado de SP. Use a base "ssp" presente na pasta "data" no material do curso. Faça isso seguindo o modelo de organização de projetos visto na primeira aula.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -55,6 +142,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -77,20 +172,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="2" max="2" width="182.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,8 +595,223 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{5F0660E7-2751-2C4F-8A71-E4EC46344FAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tab_exercicios.xlsx
+++ b/tab_exercicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202108-r4ds-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8DA94-32B2-2941-98D9-4D6378EC7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E22EB-9040-C34B-B65B-447E7CFC28C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46140" yWindow="2920" windowWidth="30660" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Reorganize alguma análise que você já fez no R seguindo o modelo de organização de projetos visto na primeira aula.</t>
   </si>
   <si>
-    <t>https://curso-r.github.io/main-r4ds-2/slides/02-organizacao-projeto.html</t>
-  </si>
-  <si>
     <t>sim</t>
   </si>
   <si>
@@ -124,13 +121,16 @@
   </si>
   <si>
     <t>Faça um documento em R Markdown mostrando as 10 delegacias com mais roubo de carro no Estado de SP. Use a base "ssp" presente na pasta "data" no material do curso. Faça isso seguindo o modelo de organização de projetos visto na primeira aula.</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/main-r4ds-2/slides/01-organizacao-projeto.html#1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -142,14 +142,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -172,22 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,56 +557,56 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="182.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -642,27 +628,27 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,13 +656,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -684,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -712,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -740,13 +726,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -768,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -782,13 +768,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -807,9 +793,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{5F0660E7-2751-2C4F-8A71-E4EC46344FAD}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
